--- a/bkp/network calibration to real world.xlsx
+++ b/bkp/network calibration to real world.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lochana Minuwansala\Downloads\Simulation  model\Katubedda Junction\bkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAED3D-0C92-46B2-A85A-971334F0269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79850A50-FED0-45E8-892B-F6914E413031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{51B18715-E3FC-4C5A-A949-DD5BA4CE79E5}"/>
   </bookViews>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB900C6-2AA7-4049-8363-5209206B30C2}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,6 +525,34 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1189</v>
+      </c>
+      <c r="B11">
+        <v>758</v>
+      </c>
+      <c r="C11">
+        <v>56.25</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>(A11/$C$11)*$F$11</f>
+        <v>211.37777777777779</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:C12" si="3">(B11/$C$11)*$F$11</f>
+        <v>134.75555555555556</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
